--- a/regresi_linear.xlsx
+++ b/regresi_linear.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Buffer pH</t>
   </si>
@@ -34,14 +35,100 @@
   </si>
   <si>
     <t>Volt</t>
+  </si>
+  <si>
+    <t>PH4</t>
+  </si>
+  <si>
+    <t>Suhu</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95,0%</t>
+  </si>
+  <si>
+    <t>Upper 95,0%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -57,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,12 +152,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,13 +365,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.96</c:v>
+                  <c:v>3.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4900000000000002</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0699999999999998</c:v>
+                  <c:v>2.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,373 +563,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Volt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.86</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.0399999999999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$5:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2.96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0699999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E36C-4D0A-86FA-E9FB30C85AE0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1912617856"/>
-        <c:axId val="1912618688"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1912617856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1912618688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1912618688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1912617856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1370,536 +1119,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1913,36 +1146,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2214,77 +1417,382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K7"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="F3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>65535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="C12" s="1">
+        <v>0.39646666666666674</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.19823333333333337</v>
+      </c>
+      <c r="E12" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F12" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.39646666666666674</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.0060805577072092</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E17" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.0060805577072092</v>
+      </c>
+      <c r="G17" s="1">
+        <v>4.0060805577072092</v>
+      </c>
+      <c r="H17" s="1">
+        <v>4.0060805577072092</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.0060805577072092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-0.17428350116188993</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E18" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-0.17428350116188993</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-0.17428350116188993</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-0.17428350116188993</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-0.17428350116188993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-1.3353989155693509E-2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>65535</v>
+      </c>
+      <c r="E19" s="2" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-1.3353989155693509E-2</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-1.3353989155693509E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-1.3353989155693509E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-1.3353989155693509E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="P3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
         <v>4</v>
       </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
         <v>0</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4.01</v>
       </c>
       <c r="C5">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>6.86</v>
       </c>
       <c r="C6">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>9.0399999999999991</v>
       </c>
       <c r="C7">
+        <v>2.27</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>4.01</v>
+      </c>
+      <c r="O9">
+        <v>26</v>
+      </c>
+      <c r="P9">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>6.86</v>
+      </c>
+      <c r="O10">
+        <v>24</v>
+      </c>
+      <c r="P10">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="O11">
+        <v>27</v>
+      </c>
+      <c r="P11">
         <v>2.0699999999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="N7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/regresi_linear.xlsx
+++ b/regresi_linear.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sensor pH" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensor Salinitas" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Buffer pH</t>
   </si>
@@ -113,6 +114,15 @@
   </si>
   <si>
     <t>Upper 95,0%</t>
+  </si>
+  <si>
+    <t>Salinitas</t>
+  </si>
+  <si>
+    <t>Tegangan</t>
+  </si>
+  <si>
+    <t>Nilai salinitas yang sebenarnya</t>
   </si>
 </sst>
 </file>
@@ -144,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -172,11 +182,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -189,6 +214,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,7 +291,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$4</c:f>
+              <c:f>'Sensor pH'!$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -342,7 +371,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$7</c:f>
+              <c:f>'Sensor pH'!$B$5:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -360,7 +389,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$7</c:f>
+              <c:f>'Sensor pH'!$C$5:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -563,7 +592,408 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensor Salinitas'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nilai salinitas yang sebenarnya</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sensor Salinitas'!$C$4:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sensor Salinitas'!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-876E-438C-A431-68662A5A991C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="899071216"/>
+        <c:axId val="899070384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="899071216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="899070384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="899070384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="899071216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1119,6 +1549,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1137,6 +2083,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1303020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1417,6 +2398,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4.01</v>
+      </c>
+      <c r="C5">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>6.86</v>
+      </c>
+      <c r="C6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C7">
+        <v>2.27</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>4.01</v>
+      </c>
+      <c r="O9">
+        <v>26</v>
+      </c>
+      <c r="P9">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>6.86</v>
+      </c>
+      <c r="O10">
+        <v>24</v>
+      </c>
+      <c r="P10">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="O11">
+        <v>27</v>
+      </c>
+      <c r="P11">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="N7:P7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0.8</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1.2</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>1.6</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1668,133 +2847,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="P3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>4.01</v>
-      </c>
-      <c r="C5">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>6.86</v>
-      </c>
-      <c r="C6">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="C7">
-        <v>2.27</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N9">
-        <v>4.01</v>
-      </c>
-      <c r="O9">
-        <v>26</v>
-      </c>
-      <c r="P9">
-        <v>2.96</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N10">
-        <v>6.86</v>
-      </c>
-      <c r="O10">
-        <v>24</v>
-      </c>
-      <c r="P10">
-        <v>2.4900000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N11">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="O11">
-        <v>27</v>
-      </c>
-      <c r="P11">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="N7:P7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/regresi_linear.xlsx
+++ b/regresi_linear.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor pH" sheetId="1" r:id="rId1"/>
     <sheet name="Sensor Salinitas" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sensor TDS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -211,13 +211,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2401,24 +2401,24 @@
   <dimension ref="B3:Q11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="M3" s="6"/>
+      <c r="P3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -2463,11 +2463,11 @@
       <c r="C7">
         <v>2.27</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="N8" t="s">
@@ -2529,7 +2529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D7"/>
     </sheetView>
   </sheetViews>
@@ -2540,16 +2540,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2598,7 +2598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>

--- a/regresi_linear.xlsx
+++ b/regresi_linear.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor pH" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Buffer pH</t>
   </si>
@@ -124,6 +124,18 @@
   <si>
     <t>Nilai salinitas yang sebenarnya</t>
   </si>
+  <si>
+    <t>PH6</t>
+  </si>
+  <si>
+    <t>PH5</t>
+  </si>
+  <si>
+    <t>PH8</t>
+  </si>
+  <si>
+    <t>PH9</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -212,6 +224,9 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,7 +353,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32697020474321853"/>
+                  <c:y val="8.0151103084905653E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -394,13 +414,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.03</c:v>
+                  <c:v>2.74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6</c:v>
+                  <c:v>2.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.27</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -641,6 +661,2167 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensor pH'!$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$T$5:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$U$5:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E129-426B-ADDB-F77A8B06774D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="293484159"/>
+        <c:axId val="293482495"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="293484159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293482495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="293482495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293484159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensor pH'!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.4107090180703974E-3"/>
+                  <c:y val="9.9755627711051134E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$N$5:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$O$5:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB02-4DC3-938F-FCC825EC1214}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="300247215"/>
+        <c:axId val="300255951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="300247215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300255951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="300255951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300247215"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.47107437075757247"/>
+          <c:y val="0.1709080612196264"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensor pH'!$Z$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>'Sensor pH'!$Y$4:$Y$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Buffer pH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4,01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6,86</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$Z$4:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF3A-4F60-A7AE-8FCB82368248}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="299157279"/>
+        <c:axId val="299152287"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="299157279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299152287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="299152287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="299157279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensor pH'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.217046388080485E-4"/>
+                  <c:y val="0.1052999805918849"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$J$5:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$K$5:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C450-4FE1-8E67-5D4108CEB150}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="300258863"/>
+        <c:axId val="300247631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="300258863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300247631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="300247631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="300258863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensor pH'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$B$21:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$C$21:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69B4-4DC2-BF68-190AFA4FC3B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="116768815"/>
+        <c:axId val="116766735"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="116768815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116766735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="116766735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="116768815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sensor pH'!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12261437793679016"/>
+                  <c:y val="1.6561378872358846E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$G$21:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sensor pH'!$H$21:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67C3-4980-8872-CB9447AA8DDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="301916127"/>
+        <c:axId val="301902815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="301916127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301902815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="301902815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="301916127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -693,7 +2874,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1033,6 +3213,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1550,6 +3970,3102 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2070,15 +7586,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>177019</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>105508</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2092,6 +7608,188 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>422031</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>201051</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>410308</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>105507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>216877</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140678</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>433755</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11723</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158263</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>93785</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>422031</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>334108</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>61544</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2398,130 +8096,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q11"/>
+  <dimension ref="B3:AA23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="L3" s="6" t="s">
+      <c r="C3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="P3" s="6" t="s">
+      <c r="G3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="N3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="T3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="Y3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="F4" t="s">
         <v>0</v>
       </c>
-      <c r="M4" t="s">
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="P4" t="s">
+      <c r="J4" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="K4" t="s">
         <v>4</v>
       </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4.01</v>
       </c>
       <c r="C5">
-        <v>3.03</v>
+        <v>2.74</v>
+      </c>
+      <c r="J5">
+        <v>4.01</v>
+      </c>
+      <c r="K5">
+        <v>3.2</v>
+      </c>
+      <c r="N5">
+        <v>4.01</v>
+      </c>
+      <c r="O5">
+        <v>3.13</v>
+      </c>
+      <c r="T5">
+        <v>4.01</v>
+      </c>
+      <c r="U5">
+        <v>3.07</v>
+      </c>
+      <c r="Y5">
+        <v>4.01</v>
+      </c>
+      <c r="Z5">
+        <v>1.31</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>6.86</v>
       </c>
       <c r="C6">
-        <v>2.6</v>
+        <v>2.44</v>
+      </c>
+      <c r="J6">
+        <v>6.86</v>
+      </c>
+      <c r="K6">
+        <v>2.7</v>
+      </c>
+      <c r="N6">
+        <v>6.86</v>
+      </c>
+      <c r="O6">
+        <v>2.66</v>
+      </c>
+      <c r="T6">
+        <v>6.86</v>
+      </c>
+      <c r="U6">
+        <v>2.59</v>
+      </c>
+      <c r="Y6">
+        <v>6.86</v>
+      </c>
+      <c r="Z6">
+        <v>2.59</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>9.0399999999999991</v>
       </c>
       <c r="C7">
-        <v>2.27</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+        <v>2.15</v>
+      </c>
+      <c r="J7">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="K7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="O7">
+        <v>2.25</v>
+      </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N8" t="s">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>0</v>
       </c>
-      <c r="O8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="C20" t="s">
         <v>4</v>
       </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N9">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>4.01</v>
       </c>
-      <c r="O9">
-        <v>26</v>
-      </c>
-      <c r="P9">
-        <v>2.96</v>
-      </c>
+      <c r="C21">
+        <v>3.88</v>
+      </c>
+      <c r="G21">
+        <v>4.01</v>
+      </c>
+      <c r="H21">
+        <v>3.13</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N10">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>6.86</v>
       </c>
-      <c r="O10">
-        <v>24</v>
-      </c>
-      <c r="P10">
-        <v>2.4900000000000002</v>
+      <c r="C22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G22">
+        <v>6.86</v>
+      </c>
+      <c r="H22">
+        <v>2.65</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="N11">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G23">
         <v>9.0399999999999991</v>
       </c>
-      <c r="O11">
-        <v>27</v>
-      </c>
-      <c r="P11">
-        <v>2.0699999999999998</v>
+      <c r="H23">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2540,10 +8353,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
@@ -2598,7 +8411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>

--- a/regresi_linear.xlsx
+++ b/regresi_linear.xlsx
@@ -1900,6 +1900,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2296,6 +2297,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2667,6 +2669,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2757,6 +2760,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3032,6 +3036,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3110,6 +3115,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -19148,8 +19154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="L131" sqref="L131"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19604,6 +19610,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B119:C119"/>
@@ -19611,11 +19622,6 @@
     <mergeCell ref="B87:C87"/>
     <mergeCell ref="B98:C98"/>
     <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
